--- a/VBA/SQLCreator/testdata/投入データ.xlsx
+++ b/VBA/SQLCreator/testdata/投入データ.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SQLCreator\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC74BB7D-AE38-4AA8-89C7-CC803F4F9849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF025B03-EB5E-49F1-8690-C62EF75659C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOGE" sheetId="1" r:id="rId1"/>
+    <sheet name="sample_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -142,6 +143,22 @@
   </si>
   <si>
     <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hello-h2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -497,7 +514,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -626,4 +643,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E51744-D1C0-48FA-8185-2C730B3924C4}">
+  <dimension ref="A2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/VBA/SQLCreator/testdata/投入データ.xlsx
+++ b/VBA/SQLCreator/testdata/投入データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SQLCreator\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF025B03-EB5E-49F1-8690-C62EF75659C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8B7232-2A52-4F02-B204-55FD6881F919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="1230" windowWidth="23625" windowHeight="12540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOGE" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>hello-h2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>123</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -647,15 +655,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E51744-D1C0-48FA-8185-2C730B3924C4}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -663,10 +671,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,6 +685,9 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
